--- a/ReleaseChecklist.xlsx
+++ b/ReleaseChecklist.xlsx
@@ -141,7 +141,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -152,6 +152,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
@@ -459,7 +462,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -481,24 +484,24 @@
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -513,7 +516,7 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -528,7 +531,7 @@
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -543,7 +546,7 @@
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -558,7 +561,7 @@
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -573,7 +576,7 @@
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -588,7 +591,7 @@
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -603,11 +606,13 @@
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">

--- a/ReleaseChecklist.xlsx
+++ b/ReleaseChecklist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>GlobalSettings의 버전 수정</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -62,7 +62,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>업데이트 서버에 올림</t>
+    <t>5분 기다림</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>업데이트 서버에 실행 올림</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>업데이트 서버에 버전 올림</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>나래온 넷 다운로드 페이지 갱신</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSDSAMO 갱신</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료 시점</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -141,27 +161,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2">
+    <xf numFmtId="22" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -459,49 +482,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="30.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -513,10 +537,10 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -528,10 +552,10 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -543,10 +567,10 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -558,10 +582,10 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -573,10 +597,10 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -588,10 +612,10 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -603,20 +627,57 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="7">
+        <v>42140.479571759257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="B13" s="7">
+        <v>42140.483043981483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7">
+        <v>42140.486485995367</v>
       </c>
     </row>
   </sheetData>

--- a/ReleaseChecklist.xlsx
+++ b/ReleaseChecklist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>GlobalSettings의 버전 수정</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>완료 시점</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.0.5</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -180,11 +184,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -485,33 +489,36 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="30.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:11">
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -526,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -541,7 +548,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -553,10 +560,10 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -568,10 +575,10 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -586,7 +593,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -601,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -616,7 +623,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -642,7 +649,7 @@
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>42140.479571759257</v>
       </c>
     </row>
@@ -650,7 +657,7 @@
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>42140.483043981483</v>
       </c>
     </row>
@@ -676,7 +683,7 @@
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>42140.486485995367</v>
       </c>
     </row>

--- a/ReleaseChecklist.xlsx
+++ b/ReleaseChecklist.xlsx
@@ -46,10 +46,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>체크리스트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>5.0.4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -87,6 +83,10 @@
   </si>
   <si>
     <t>5.0.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>나래온 툴 릴리즈 체크 리스트</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -94,7 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +123,15 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -187,8 +196,8 @@
     <xf numFmtId="22" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -486,10 +495,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -500,37 +510,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -545,10 +560,10 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -560,7 +575,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="3"/>
@@ -575,10 +590,10 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="3"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -590,7 +605,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -605,7 +620,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -620,77 +635,73 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="B11" s="6">
+        <v>42140.479571759257</v>
+      </c>
+      <c r="C11" s="6">
+        <v>42141.520240740741</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>42140.479571759257</v>
+        <v>42140.483043981483</v>
+      </c>
+      <c r="C12" s="6">
+        <v>42141.522666435187</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6">
-        <v>42140.483043981483</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6">
+      <c r="B16" s="6">
         <v>42140.486485995367</v>
       </c>
+      <c r="C16" s="6">
+        <v>42141.524766666669</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:J1"/>
-  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ReleaseChecklist.xlsx
+++ b/ReleaseChecklist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>GlobalSettings의 버전 수정</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>나래온 툴 릴리즈 체크 리스트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.0.5 (시게이트 600 수정)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 통과</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -178,9 +190,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
@@ -198,6 +207,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -495,11 +507,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E19" sqref="E19"/>
+      <selection pane="topRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -507,198 +519,181 @@
     <col min="1" max="1" width="30.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.09765625" customWidth="1"/>
+    <col min="4" max="4" width="22.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B12" s="5">
         <v>42140.479571759257</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C12" s="5">
         <v>42141.520240740741</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="2" t="s">
+      <c r="D12" s="5">
+        <v>42141.673499189812</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B13" s="5">
         <v>42140.483043981483</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C13" s="5">
         <v>42141.522666435187</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="2" t="s">
+      <c r="D13" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B17" s="5">
         <v>42140.486485995367</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C17" s="5">
         <v>42141.524766666669</v>
+      </c>
+      <c r="D17" s="5">
+        <v>42141.673499189812</v>
       </c>
     </row>
   </sheetData>

--- a/ReleaseChecklist.xlsx
+++ b/ReleaseChecklist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>GlobalSettings의 버전 수정</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -99,6 +99,10 @@
   </si>
   <si>
     <t>Pass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.0.6</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -507,22 +511,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D4" sqref="D4"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="30.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.09765625" customWidth="1"/>
-    <col min="4" max="4" width="22.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -535,8 +536,11 @@
       <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -544,7 +548,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,7 +558,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -564,7 +568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -572,7 +576,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -582,7 +586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -590,7 +594,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -598,7 +602,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -606,7 +610,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -616,7 +620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -626,7 +630,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -640,7 +644,7 @@
         <v>42141.673499189812</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -654,7 +658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -662,7 +666,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -672,7 +676,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>

--- a/ReleaseChecklist.xlsx
+++ b/ReleaseChecklist.xlsx
@@ -513,9 +513,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="17.399999999999999"/>
@@ -547,6 +547,7 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
@@ -557,6 +558,7 @@
       <c r="D3" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
@@ -567,6 +569,7 @@
       <c r="D4" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
@@ -575,6 +578,7 @@
       <c r="B5" s="4"/>
       <c r="C5" s="2"/>
       <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
@@ -585,6 +589,7 @@
       <c r="D6" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
@@ -593,6 +598,7 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
@@ -601,6 +607,7 @@
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
@@ -609,6 +616,7 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
@@ -619,6 +627,7 @@
       <c r="D10" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
@@ -629,6 +638,7 @@
       <c r="D11" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
@@ -643,6 +653,9 @@
       <c r="D12" s="5">
         <v>42141.673499189812</v>
       </c>
+      <c r="E12" s="5">
+        <v>42149.446038078706</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
@@ -657,6 +670,9 @@
       <c r="D13" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="E13" s="5">
+        <v>42149.448279745367</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
@@ -665,6 +681,7 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="7"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
@@ -675,6 +692,7 @@
       <c r="D15" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
@@ -685,8 +703,9 @@
       <c r="D16" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -698,6 +717,9 @@
       </c>
       <c r="D17" s="5">
         <v>42141.673499189812</v>
+      </c>
+      <c r="E17" s="5">
+        <v>42149.448647106481</v>
       </c>
     </row>
   </sheetData>

--- a/ReleaseChecklist.xlsx
+++ b/ReleaseChecklist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="11496" windowHeight="5568"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="11490" windowHeight="5565"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>GlobalSettings의 버전 수정</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -103,6 +103,14 @@
   </si>
   <si>
     <t>5.0.6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.0.7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이슨 제외</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -511,19 +519,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G24" sqref="G24"/>
+      <selection pane="topRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="30.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -539,8 +547,11 @@
       <c r="E1" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -548,8 +559,11 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,8 +573,9 @@
         <v>20</v>
       </c>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -570,8 +585,9 @@
         <v>20</v>
       </c>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -579,8 +595,9 @@
       <c r="C5" s="2"/>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -590,8 +607,9 @@
         <v>20</v>
       </c>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -599,8 +617,9 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -608,8 +627,9 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -617,8 +637,9 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -628,8 +649,9 @@
         <v>20</v>
       </c>
       <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -639,8 +661,9 @@
         <v>20</v>
       </c>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -656,8 +679,11 @@
       <c r="E12" s="5">
         <v>42149.446038078706</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="5">
+        <v>42190.350549768518</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -673,8 +699,11 @@
       <c r="E13" s="5">
         <v>42149.448279745367</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="5">
+        <v>42190.352436921297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -682,8 +711,9 @@
       <c r="C14" s="2"/>
       <c r="D14" s="7"/>
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -693,8 +723,9 @@
         <v>20</v>
       </c>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -704,8 +735,9 @@
         <v>20</v>
       </c>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -720,6 +752,9 @@
       </c>
       <c r="E17" s="5">
         <v>42149.448647106481</v>
+      </c>
+      <c r="F17" s="5">
+        <v>42190.357494212964</v>
       </c>
     </row>
   </sheetData>
@@ -735,7 +770,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -748,7 +783,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ReleaseChecklist.xlsx
+++ b/ReleaseChecklist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>GlobalSettings의 버전 수정</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -111,6 +111,14 @@
   </si>
   <si>
     <t>파이슨 제외</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.0.7 (긴급수정)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.0.8</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -519,11 +527,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F16" sqref="F16"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="16.5"/>
@@ -531,7 +539,7 @@
     <col min="1" max="1" width="30.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -550,8 +558,14 @@
       <c r="F1" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -562,8 +576,10 @@
       <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,8 +590,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -586,8 +604,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -596,8 +616,10 @@
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -608,8 +630,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -618,8 +642,10 @@
       <c r="D7" s="4"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -628,8 +654,10 @@
       <c r="D8" s="4"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -638,8 +666,10 @@
       <c r="D9" s="4"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -650,8 +680,9 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -662,8 +693,9 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -682,8 +714,9 @@
       <c r="F12" s="5">
         <v>42190.350549768518</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -702,8 +735,9 @@
       <c r="F13" s="5">
         <v>42190.352436921297</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -712,8 +746,9 @@
       <c r="D14" s="7"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -724,8 +759,9 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -736,8 +772,9 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -756,6 +793,7 @@
       <c r="F17" s="5">
         <v>42190.357494212964</v>
       </c>
+      <c r="G17" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/ReleaseChecklist.xlsx
+++ b/ReleaseChecklist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>GlobalSettings의 버전 수정</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -119,6 +119,10 @@
   </si>
   <si>
     <t>5.0.8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>중지</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -531,7 +535,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H10" sqref="H10"/>
+      <selection pane="topRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="16.5"/>
@@ -681,6 +685,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
@@ -694,6 +699,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
@@ -715,6 +721,9 @@
         <v>42190.350549768518</v>
       </c>
       <c r="G12" s="2"/>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">

--- a/ReleaseChecklist.xlsx
+++ b/ReleaseChecklist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="11490" windowHeight="5565"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="11496" windowHeight="5568"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -535,12 +535,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H13" sqref="H13"/>
+      <selection pane="topRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -817,7 +817,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -830,7 +830,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ReleaseChecklist.xlsx
+++ b/ReleaseChecklist.xlsx
@@ -18,10 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
-    <t>GlobalSettings의 버전 수정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Version.nsh 수정</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -123,6 +119,10 @@
   </si>
   <si>
     <t>중지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VersionPublisher의 버전 수정</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -535,7 +535,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H12" sqref="H12"/>
+      <selection pane="topRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="17.399999999999999"/>
@@ -545,52 +545,52 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="G1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -599,12 +599,12 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -613,7 +613,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="2"/>
@@ -625,12 +625,12 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
       <c r="D6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -639,7 +639,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -651,7 +651,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -663,7 +663,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -675,12 +675,12 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -689,12 +689,12 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -703,7 +703,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5">
         <v>42140.479571759257</v>
@@ -722,12 +722,12 @@
       </c>
       <c r="G12" s="2"/>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="5">
         <v>42140.483043981483</v>
@@ -736,7 +736,7 @@
         <v>42141.522666435187</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="5">
         <v>42149.448279745367</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -759,12 +759,12 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -772,12 +772,12 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="5">
         <v>42140.486485995367</v>

--- a/ReleaseChecklist.xlsx
+++ b/ReleaseChecklist.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnivProject\SSDTools\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="11496" windowHeight="5568"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Version.nsh 수정</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -123,14 +128,18 @@
   </si>
   <si>
     <t>VersionPublisher의 버전 수정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.0.9</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +252,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -289,7 +306,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -321,9 +338,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -355,6 +373,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -530,20 +549,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A4" sqref="A4"/>
+      <selection pane="topRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="30.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -568,8 +587,11 @@
       <c r="H1" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -582,8 +604,9 @@
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -596,8 +619,9 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -610,8 +634,9 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -622,8 +647,9 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,8 +662,9 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -648,8 +675,9 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -660,8 +688,9 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -672,8 +701,9 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -686,8 +716,9 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -700,8 +731,9 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -724,8 +756,11 @@
       <c r="H12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="5">
+        <v>42358.649265277774</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -745,8 +780,9 @@
         <v>42190.352436921297</v>
       </c>
       <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -756,8 +792,9 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -769,8 +806,9 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -783,7 +821,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -803,6 +841,9 @@
         <v>42190.357494212964</v>
       </c>
       <c r="G17" s="2"/>
+      <c r="I17" s="5">
+        <v>42358.667345023146</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -812,12 +853,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -825,12 +866,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ReleaseChecklist.xlsx
+++ b/ReleaseChecklist.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Version.nsh 수정</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -132,13 +132,17 @@
   </si>
   <si>
     <t>5.0.9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -550,11 +554,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I17" sqref="I17"/>
+      <selection pane="topRight" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -562,7 +566,7 @@
     <col min="1" max="1" width="30.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -590,8 +594,11 @@
       <c r="I1" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -605,8 +612,9 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -620,8 +628,9 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -635,8 +644,9 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -648,8 +658,9 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,8 +674,9 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -676,8 +688,9 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -689,8 +702,9 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -702,8 +716,9 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -717,8 +732,9 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -732,8 +748,9 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -759,8 +776,9 @@
       <c r="I12" s="5">
         <v>42358.649265277774</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -781,8 +799,9 @@
       </c>
       <c r="G13" s="2"/>
       <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -793,8 +812,9 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -807,8 +827,9 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -820,8 +841,9 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -843,6 +865,9 @@
       <c r="G17" s="2"/>
       <c r="I17" s="5">
         <v>42358.667345023146</v>
+      </c>
+      <c r="J17" s="5">
+        <v>42364.648486458333</v>
       </c>
     </row>
   </sheetData>

--- a/ReleaseChecklist.xlsx
+++ b/ReleaseChecklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnivProject\SSDTools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Torrent\Projects\SSDTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Version.nsh 수정</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -136,6 +136,10 @@
   </si>
   <si>
     <t>5.1.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -554,11 +558,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K14" sqref="K14"/>
+      <selection pane="topRight" activeCell="K10" sqref="K10:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -566,7 +570,7 @@
     <col min="1" max="1" width="30.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -597,8 +601,11 @@
       <c r="J1" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -613,8 +620,9 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -629,8 +637,9 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -645,8 +654,9 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -659,8 +669,9 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -675,8 +686,9 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -689,8 +701,9 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -703,8 +716,9 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -717,8 +731,9 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -733,8 +748,9 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -749,8 +765,9 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -778,7 +795,7 @@
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -801,7 +818,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -814,7 +831,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -829,7 +846,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>

--- a/ReleaseChecklist.xlsx
+++ b/ReleaseChecklist.xlsx
@@ -39,10 +39,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>셋업 코드사인</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Web\Update폴더 내 파일들 수정</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -140,6 +136,10 @@
   </si>
   <si>
     <t>5.1.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -558,11 +558,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K10" sqref="K10:K11"/>
+      <selection pane="topRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -570,66 +570,70 @@
     <col min="1" max="1" width="30.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -638,15 +642,16 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -655,8 +660,9 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -670,15 +676,16 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
       <c r="D6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -687,8 +694,9 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -702,8 +710,9 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -718,13 +727,15 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -733,14 +744,14 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -750,140 +761,123 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>42140.479571759257</v>
+      </c>
+      <c r="C11" s="5">
+        <v>42141.520240740741</v>
+      </c>
+      <c r="D11" s="5">
+        <v>42141.673499189812</v>
+      </c>
+      <c r="E11" s="5">
+        <v>42149.446038078706</v>
+      </c>
+      <c r="F11" s="5">
+        <v>42190.350549768518</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="5">
+        <v>42358.649265277774</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="5">
+        <v>42140.483043981483</v>
+      </c>
+      <c r="C12" s="5">
+        <v>42141.522666435187</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="5">
+        <v>42149.448279745367</v>
+      </c>
+      <c r="F12" s="5">
+        <v>42190.352436921297</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
-        <v>42140.479571759257</v>
-      </c>
-      <c r="C12" s="5">
-        <v>42141.520240740741</v>
-      </c>
-      <c r="D12" s="5">
-        <v>42141.673499189812</v>
-      </c>
-      <c r="E12" s="5">
-        <v>42149.446038078706</v>
-      </c>
-      <c r="F12" s="5">
-        <v>42190.350549768518</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="5">
-        <v>42358.649265277774</v>
-      </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="5">
-        <v>42140.483043981483</v>
-      </c>
-      <c r="C13" s="5">
-        <v>42141.522666435187</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="5">
-        <v>42149.448279745367</v>
-      </c>
-      <c r="F13" s="5">
-        <v>42190.352436921297</v>
-      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="B16" s="5">
+        <v>42140.486485995367</v>
+      </c>
+      <c r="C16" s="5">
+        <v>42141.524766666669</v>
+      </c>
+      <c r="D16" s="5">
+        <v>42141.673499189812</v>
+      </c>
+      <c r="E16" s="5">
+        <v>42149.448647106481</v>
+      </c>
+      <c r="F16" s="5">
+        <v>42190.357494212964</v>
+      </c>
       <c r="G16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="5">
-        <v>42140.486485995367</v>
-      </c>
-      <c r="C17" s="5">
-        <v>42141.524766666669</v>
-      </c>
-      <c r="D17" s="5">
-        <v>42141.673499189812</v>
-      </c>
-      <c r="E17" s="5">
-        <v>42149.448647106481</v>
-      </c>
-      <c r="F17" s="5">
-        <v>42190.357494212964</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="I17" s="5">
+      <c r="I16" s="5">
         <v>42358.667345023146</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J16" s="5">
         <v>42364.648486458333</v>
       </c>
     </row>

--- a/ReleaseChecklist.xlsx
+++ b/ReleaseChecklist.xlsx
@@ -562,7 +562,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L8" sqref="L8"/>
+      <selection pane="topRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -726,6 +726,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
@@ -743,6 +744,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
@@ -760,6 +762,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">

--- a/ReleaseChecklist.xlsx
+++ b/ReleaseChecklist.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Version.nsh 수정</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -140,6 +140,10 @@
   </si>
   <si>
     <t>5.1.2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -558,11 +562,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L11" sqref="L11"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -570,7 +574,7 @@
     <col min="1" max="1" width="30.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -607,8 +611,11 @@
       <c r="L1" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -625,8 +632,9 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -643,8 +651,9 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -661,8 +670,9 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -677,8 +687,9 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,8 +706,9 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -711,8 +723,9 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -727,8 +740,9 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -745,8 +759,9 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -763,8 +778,9 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -792,7 +808,7 @@
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -815,7 +831,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -828,7 +844,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -843,7 +859,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -857,7 +873,7 @@
       <c r="G15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>

--- a/ReleaseChecklist.xlsx
+++ b/ReleaseChecklist.xlsx
@@ -566,7 +566,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M10" sqref="M10"/>
+      <selection pane="topRight" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -807,6 +807,9 @@
         <v>42358.649265277774</v>
       </c>
       <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
@@ -830,6 +833,9 @@
       <c r="G12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
@@ -843,6 +849,9 @@
       <c r="G13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
@@ -858,6 +867,9 @@
       <c r="G14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
@@ -872,6 +884,9 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
@@ -898,6 +913,13 @@
       </c>
       <c r="J16" s="5">
         <v>42364.648486458333</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="5">
+        <v>42392.511801388886</v>
+      </c>
+      <c r="M16" s="5">
+        <v>42393.511589120368</v>
       </c>
     </row>
   </sheetData>

--- a/ReleaseChecklist.xlsx
+++ b/ReleaseChecklist.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Version.nsh 수정</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -144,6 +144,14 @@
   </si>
   <si>
     <t>5.1.3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송 방식 바이너리 선택</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -562,11 +570,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L16" sqref="L16"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -574,7 +582,7 @@
     <col min="1" max="1" width="30.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -614,8 +622,11 @@
       <c r="M1" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -633,8 +644,9 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -652,8 +664,9 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -671,8 +684,9 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -688,8 +702,9 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -707,8 +722,9 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -724,8 +740,9 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -741,8 +758,9 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -760,8 +778,9 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -779,89 +798,92 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5">
-        <v>42140.479571759257</v>
-      </c>
-      <c r="C11" s="5">
-        <v>42141.520240740741</v>
-      </c>
-      <c r="D11" s="5">
-        <v>42141.673499189812</v>
-      </c>
-      <c r="E11" s="5">
-        <v>42149.446038078706</v>
-      </c>
-      <c r="F11" s="5">
-        <v>42190.350549768518</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="5">
-        <v>42358.649265277774</v>
-      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="5">
-        <v>42140.483043981483</v>
+        <v>42140.479571759257</v>
       </c>
       <c r="C12" s="5">
-        <v>42141.522666435187</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>18</v>
+        <v>42141.520240740741</v>
+      </c>
+      <c r="D12" s="5">
+        <v>42141.673499189812</v>
       </c>
       <c r="E12" s="5">
-        <v>42149.448279745367</v>
+        <v>42149.446038078706</v>
       </c>
       <c r="F12" s="5">
-        <v>42190.352436921297</v>
+        <v>42190.350549768518</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="5">
+        <v>42358.649265277774</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="5">
+        <v>42140.483043981483</v>
+      </c>
+      <c r="C13" s="5">
+        <v>42141.522666435187</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="5">
+        <v>42149.448279745367</v>
+      </c>
+      <c r="F13" s="5">
+        <v>42190.352436921297</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -870,10 +892,11 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -883,43 +906,66 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
+      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B17" s="5">
         <v>42140.486485995367</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C17" s="5">
         <v>42141.524766666669</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D17" s="5">
         <v>42141.673499189812</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E17" s="5">
         <v>42149.448647106481</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F17" s="5">
         <v>42190.357494212964</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="I16" s="5">
+      <c r="G17" s="2"/>
+      <c r="I17" s="5">
         <v>42358.667345023146</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J17" s="5">
         <v>42364.648486458333</v>
       </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="5">
+      <c r="K17" s="2"/>
+      <c r="L17" s="5">
         <v>42392.511801388886</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M17" s="5">
         <v>42393.511589120368</v>
+      </c>
+      <c r="N17" s="5">
+        <v>42400.587148842591</v>
       </c>
     </row>
   </sheetData>

--- a/ReleaseChecklist.xlsx
+++ b/ReleaseChecklist.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Version.nsh 수정</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>5분 기다림</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>업데이트 서버에 실행 올림</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -152,6 +148,10 @@
   </si>
   <si>
     <t>전송 방식 바이너리 선택</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.5</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -570,11 +570,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N14" sqref="N14"/>
+      <selection pane="topRight" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -582,60 +582,63 @@
     <col min="1" max="1" width="30.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -645,15 +648,16 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -665,15 +669,16 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -685,8 +690,9 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -703,15 +709,16 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
       <c r="D6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -723,8 +730,9 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -741,8 +749,9 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -759,15 +768,16 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -779,15 +789,16 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -799,10 +810,11 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -817,10 +829,11 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="5">
         <v>42140.479571759257</v>
@@ -839,7 +852,7 @@
       </c>
       <c r="G12" s="2"/>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I12" s="5">
         <v>42358.649265277774</v>
@@ -849,26 +862,17 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="5">
-        <v>42140.483043981483</v>
-      </c>
-      <c r="C13" s="5">
-        <v>42141.522666435187</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="5">
-        <v>42149.448279745367</v>
-      </c>
-      <c r="F13" s="5">
-        <v>42190.352436921297</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -876,14 +880,17 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -893,79 +900,65 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="B16" s="5">
+        <v>42140.486485995367</v>
+      </c>
+      <c r="C16" s="5">
+        <v>42141.524766666669</v>
+      </c>
+      <c r="D16" s="5">
+        <v>42141.673499189812</v>
+      </c>
+      <c r="E16" s="5">
+        <v>42149.448647106481</v>
+      </c>
+      <c r="F16" s="5">
+        <v>42190.357494212964</v>
+      </c>
       <c r="G16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="I16" s="5">
+        <v>42358.667345023146</v>
+      </c>
+      <c r="J16" s="5">
+        <v>42364.648486458333</v>
+      </c>
       <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="5">
-        <v>42140.486485995367</v>
-      </c>
-      <c r="C17" s="5">
-        <v>42141.524766666669</v>
-      </c>
-      <c r="D17" s="5">
-        <v>42141.673499189812</v>
-      </c>
-      <c r="E17" s="5">
-        <v>42149.448647106481</v>
-      </c>
-      <c r="F17" s="5">
-        <v>42190.357494212964</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="I17" s="5">
-        <v>42358.667345023146</v>
-      </c>
-      <c r="J17" s="5">
-        <v>42364.648486458333</v>
-      </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="5">
+      <c r="L16" s="5">
         <v>42392.511801388886</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M16" s="5">
         <v>42393.511589120368</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N16" s="5">
         <v>42400.587148842591</v>
+      </c>
+      <c r="O16" s="5">
+        <v>42405.906922337963</v>
       </c>
     </row>
   </sheetData>

--- a/ReleaseChecklist.xlsx
+++ b/ReleaseChecklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Torrent\Projects\SSDTools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\SSDTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Version.nsh 수정</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -152,6 +152,10 @@
   </si>
   <si>
     <t>5.1.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.6</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -570,11 +574,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O16" sqref="O16"/>
+      <selection pane="topRight" activeCell="P9" sqref="P9:P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -582,7 +586,7 @@
     <col min="1" max="1" width="30.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
@@ -628,8 +632,11 @@
       <c r="O1" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -649,8 +656,9 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -670,8 +678,9 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -691,8 +700,9 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -710,8 +720,9 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -731,8 +742,9 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -750,8 +762,9 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -769,8 +782,9 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -790,8 +804,9 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,8 +826,9 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -831,7 +847,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -864,7 +880,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -882,7 +898,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -902,7 +918,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -921,7 +937,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>

--- a/ReleaseChecklist.xlsx
+++ b/ReleaseChecklist.xlsx
@@ -578,7 +578,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P9" sqref="P9:P10"/>
+      <selection pane="topRight" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -846,6 +846,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
@@ -879,6 +880,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
@@ -897,6 +899,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
@@ -917,6 +920,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
@@ -936,6 +940,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
@@ -975,6 +980,9 @@
       </c>
       <c r="O16" s="5">
         <v>42405.906922337963</v>
+      </c>
+      <c r="P16" s="5">
+        <v>42410.09121215278</v>
       </c>
     </row>
   </sheetData>

--- a/ReleaseChecklist.xlsx
+++ b/ReleaseChecklist.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Version.nsh 수정</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -156,6 +156,14 @@
   </si>
   <si>
     <t>5.1.6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.8</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -574,11 +582,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P15" sqref="P15"/>
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R9" sqref="R9:R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -586,7 +594,7 @@
     <col min="1" max="1" width="30.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
@@ -635,8 +643,14 @@
       <c r="P1" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -657,8 +671,10 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -679,8 +695,10 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -701,8 +719,10 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -721,8 +741,10 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -743,8 +765,10 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -763,8 +787,10 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -783,8 +809,10 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -805,8 +833,9 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,8 +856,9 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -847,8 +877,9 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -881,8 +912,9 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -900,8 +932,9 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -921,8 +954,9 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -941,8 +975,9 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -983,6 +1018,9 @@
       </c>
       <c r="P16" s="5">
         <v>42410.09121215278</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>42414.015726967591</v>
       </c>
     </row>
   </sheetData>

--- a/ReleaseChecklist.xlsx
+++ b/ReleaseChecklist.xlsx
@@ -586,7 +586,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R9" sqref="R9:R10"/>
+      <selection pane="topRight" activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -834,6 +834,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
@@ -857,6 +858,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
@@ -878,6 +880,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
@@ -913,6 +916,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
@@ -933,6 +937,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
@@ -955,6 +960,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
@@ -976,6 +982,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
@@ -1021,6 +1028,9 @@
       </c>
       <c r="Q16" s="5">
         <v>42414.015726967591</v>
+      </c>
+      <c r="R16" s="5">
+        <v>42414.112428935186</v>
       </c>
     </row>
   </sheetData>

--- a/ReleaseChecklist.xlsx
+++ b/ReleaseChecklist.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>Version.nsh 수정</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -164,6 +164,10 @@
   </si>
   <si>
     <t>5.1.8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.9</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -582,11 +586,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R16" sqref="R16"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -594,7 +598,7 @@
     <col min="1" max="1" width="30.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
@@ -649,8 +653,11 @@
       <c r="R1" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -673,8 +680,9 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -697,8 +705,9 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -721,8 +730,9 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -743,8 +753,9 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -767,8 +778,9 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,8 +801,9 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -811,8 +824,9 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,8 +849,9 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -859,8 +874,9 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -881,8 +897,9 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -917,8 +934,9 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -938,8 +956,9 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -961,8 +980,9 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -983,8 +1003,9 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1031,6 +1052,9 @@
       </c>
       <c r="R16" s="5">
         <v>42414.112428935186</v>
+      </c>
+      <c r="S16" s="5">
+        <v>42420.648666782407</v>
       </c>
     </row>
   </sheetData>

--- a/ReleaseChecklist.xlsx
+++ b/ReleaseChecklist.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>Version.nsh 수정</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -168,6 +168,14 @@
   </si>
   <si>
     <t>5.1.9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2.1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -375,6 +383,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -410,6 +435,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -586,11 +628,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R9" sqref="R9"/>
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -598,7 +640,7 @@
     <col min="1" max="1" width="30.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
@@ -656,8 +698,14 @@
       <c r="S1" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -681,8 +729,10 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -706,8 +756,10 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -731,8 +783,10 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -754,8 +808,10 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -779,8 +835,10 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +860,10 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -825,8 +885,10 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +912,10 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -875,8 +939,10 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -898,8 +964,9 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -935,8 +1002,9 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -957,8 +1025,9 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -982,7 +1051,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,7 +1074,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>

--- a/ReleaseChecklist.xlsx
+++ b/ReleaseChecklist.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>Version.nsh 수정</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -176,6 +176,10 @@
   </si>
   <si>
     <t>5.2.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2.2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -628,11 +632,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U10" sqref="U10"/>
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -640,7 +644,7 @@
     <col min="1" max="1" width="30.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
@@ -704,8 +708,11 @@
       <c r="U1" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="V1" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -731,8 +738,9 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="V2" s="2"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -758,8 +766,9 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -785,8 +794,9 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="V4" s="2"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -810,8 +820,9 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="V5" s="2"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -837,8 +848,9 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="V6" s="2"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -862,8 +874,9 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="V7" s="2"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -887,8 +900,9 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="V8" s="2"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +928,9 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="V9" s="2"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,7 +957,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -965,8 +980,9 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="U11" s="2"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1003,8 +1019,9 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="U12" s="2"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,8 +1043,9 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="U13" s="2"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1050,8 +1068,10 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1073,8 +1093,10 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1125,6 +1147,8 @@
       <c r="S16" s="5">
         <v>42420.648666782407</v>
       </c>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/ReleaseChecklist.xlsx
+++ b/ReleaseChecklist.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -636,7 +636,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V10" sqref="V10"/>
+      <selection pane="topRight" activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -956,6 +956,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
@@ -981,6 +982,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
@@ -1020,6 +1022,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
@@ -1044,6 +1047,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
@@ -1070,6 +1074,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
@@ -1095,6 +1100,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
@@ -1149,6 +1155,9 @@
       </c>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
+      <c r="V16" s="5">
+        <v>42450.054492939817</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/ReleaseChecklist.xlsx
+++ b/ReleaseChecklist.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>Version.nsh 수정</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -180,6 +180,10 @@
   </si>
   <si>
     <t>5.2.2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2.3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -632,11 +636,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V16" sqref="V16"/>
+      <selection pane="topRight" activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -644,7 +648,7 @@
     <col min="1" max="1" width="30.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
@@ -711,8 +715,11 @@
       <c r="V1" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="W1" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -739,8 +746,9 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="W2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -767,8 +775,9 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -795,8 +804,9 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -821,8 +831,9 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="W5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -849,8 +860,9 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="W6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -875,8 +887,9 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="W7" s="2"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -901,8 +914,9 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="W8" s="2"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -929,8 +943,9 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="W9" s="2"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -957,8 +972,9 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="W10" s="2"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -983,8 +999,9 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="W11" s="2"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1023,8 +1040,9 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="W12" s="2"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1066,9 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="W13" s="2"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1075,8 +1094,9 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="W14" s="2"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1101,8 +1121,9 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="W15" s="2"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1157,6 +1178,9 @@
       <c r="U16" s="2"/>
       <c r="V16" s="5">
         <v>42450.054492939817</v>
+      </c>
+      <c r="W16" s="5">
+        <v>42455.537229745372</v>
       </c>
     </row>
   </sheetData>

--- a/ReleaseChecklist.xlsx
+++ b/ReleaseChecklist.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Version.nsh 수정</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -184,6 +184,10 @@
   </si>
   <si>
     <t>5.2.3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2.4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -636,11 +640,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W19" sqref="W19"/>
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X2" sqref="X2:X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -648,7 +652,7 @@
     <col min="1" max="1" width="30.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
@@ -718,8 +722,11 @@
       <c r="W1" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X1" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -747,8 +754,9 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X2" s="2"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -776,8 +784,9 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X3" s="2"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -805,8 +814,9 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X4" s="2"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -832,8 +842,9 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X5" s="2"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -861,8 +872,9 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X6" s="2"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -888,8 +900,9 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X7" s="2"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -915,8 +928,9 @@
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X8" s="2"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -944,8 +958,9 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -973,8 +988,9 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -1001,7 +1017,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,7 +1058,7 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,7 +1084,7 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1096,7 +1112,7 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1123,7 +1139,7 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>

--- a/ReleaseChecklist.xlsx
+++ b/ReleaseChecklist.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\SSDTools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SSDTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -644,7 +644,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X2" sqref="X2:X10"/>
+      <selection pane="topRight" activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1016,6 +1016,7 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
@@ -1057,6 +1058,7 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
@@ -1083,6 +1085,7 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
@@ -1111,6 +1114,7 @@
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
@@ -1138,6 +1142,7 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
@@ -1197,6 +1202,9 @@
       </c>
       <c r="W16" s="5">
         <v>42455.537229745372</v>
+      </c>
+      <c r="X16" s="5">
+        <v>42518.782324768516</v>
       </c>
     </row>
   </sheetData>

--- a/ReleaseChecklist.xlsx
+++ b/ReleaseChecklist.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>Version.nsh 수정</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -188,6 +188,10 @@
   </si>
   <si>
     <t>5.2.4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.3.0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -255,12 +259,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -275,7 +294,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -299,6 +318,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -640,11 +662,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X16"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X17" sqref="X17"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -652,7 +674,7 @@
     <col min="1" max="1" width="30.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
@@ -725,8 +747,11 @@
       <c r="X1" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="Y1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -755,8 +780,9 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="Y2" s="2"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -785,8 +811,9 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="Y3" s="2"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -815,8 +842,9 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="Y4" s="2"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -843,8 +871,9 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="Y5" s="2"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -873,8 +902,9 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="Y6" s="2"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -901,8 +931,9 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="Y7" s="2"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -929,8 +960,9 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="Y8" s="2"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -959,8 +991,9 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="Y9" s="2"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -989,8 +1022,9 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="Y10" s="2"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -1017,8 +1051,9 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="Y11" s="2"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1094,9 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="Y12" s="2"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1086,8 +1122,9 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="Y13" s="2"/>
+    </row>
+    <row r="14" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1115,8 +1152,9 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="Y14" s="2"/>
+    </row>
+    <row r="15" spans="1:25" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1128,6 +1166,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
+      <c r="I15" s="8"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1143,8 +1182,9 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="Y15" s="2"/>
+    </row>
+    <row r="16" spans="1:25" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1205,6 +1245,9 @@
       </c>
       <c r="X16" s="5">
         <v>42518.782324768516</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>42613.692334490741</v>
       </c>
     </row>
   </sheetData>
